--- a/final_data_pipeline/output/311613longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311613longform_elec_options.xlsx
@@ -910,7 +910,7 @@
         <v>58</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -925,10 +925,10 @@
         <v>289266.3961818336</v>
       </c>
       <c r="R7">
-        <v>1.303382352941176</v>
+        <v>1.383082880591839</v>
       </c>
       <c r="S7">
-        <v>1.36921875</v>
+        <v>1.45851929478486</v>
       </c>
       <c r="T7">
         <v>36.1582995227292</v>
@@ -963,7 +963,7 @@
         <v>58</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -978,10 +978,10 @@
         <v>1019438.383115722</v>
       </c>
       <c r="R8">
-        <v>1.303382352941176</v>
+        <v>1.358217807733239</v>
       </c>
       <c r="S8">
-        <v>1.36921875</v>
+        <v>1.430585745597461</v>
       </c>
       <c r="T8">
         <v>127.4297978894652</v>
@@ -1016,7 +1016,7 @@
         <v>58</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1031,10 +1031,10 @@
         <v>695701.5504240837</v>
       </c>
       <c r="R9">
-        <v>1.303382352941176</v>
+        <v>1.26966971746916</v>
       </c>
       <c r="S9">
-        <v>1.36921875</v>
+        <v>1.331650485436893</v>
       </c>
       <c r="T9">
         <v>86.96269380301047</v>
@@ -1069,7 +1069,7 @@
         <v>58</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L10">
         <v>8000</v>
@@ -1084,10 +1084,10 @@
         <v>372756.4302623934</v>
       </c>
       <c r="R10">
-        <v>1.303382352941176</v>
+        <v>1.34262450293505</v>
       </c>
       <c r="S10">
-        <v>1.36921875</v>
+        <v>1.413102197137674</v>
       </c>
       <c r="T10">
         <v>46.59455378279918</v>
@@ -1122,7 +1122,7 @@
         <v>59</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1169,7 +1169,7 @@
         <v>58</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1184,10 +1184,10 @@
         <v>1049973.171167949</v>
       </c>
       <c r="R12">
-        <v>1.303382352941176</v>
+        <v>1.361508482130158</v>
       </c>
       <c r="S12">
-        <v>1.36921875</v>
+        <v>1.434278670802308</v>
       </c>
       <c r="T12">
         <v>131.2466463959936</v>
@@ -1428,7 +1428,7 @@
         <v>58</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1443,10 +1443,10 @@
         <v>190277.2931716102</v>
       </c>
       <c r="R17">
-        <v>1.303382352941176</v>
+        <v>1.3328422686908</v>
       </c>
       <c r="S17">
-        <v>1.36921875</v>
+        <v>1.402147510806076</v>
       </c>
       <c r="T17">
         <v>23.78466164645127</v>
@@ -1481,7 +1481,7 @@
         <v>59</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1581,7 +1581,7 @@
         <v>58</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1596,10 +1596,10 @@
         <v>541191.5766880986</v>
       </c>
       <c r="R20">
-        <v>1.303382352941176</v>
+        <v>1.34262450293505</v>
       </c>
       <c r="S20">
-        <v>1.36921875</v>
+        <v>1.413102197137674</v>
       </c>
       <c r="T20">
         <v>67.64894708601233</v>
@@ -1634,7 +1634,7 @@
         <v>59</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1787,7 +1787,7 @@
         <v>58</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1802,10 +1802,10 @@
         <v>1144666.173174227</v>
       </c>
       <c r="R24">
-        <v>1.303382352941176</v>
+        <v>1.326922189449132</v>
       </c>
       <c r="S24">
-        <v>1.36921875</v>
+        <v>1.395522876500952</v>
       </c>
       <c r="T24">
         <v>143.0832716467784</v>
@@ -1840,7 +1840,7 @@
         <v>59</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -1887,7 +1887,7 @@
         <v>58</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1902,10 +1902,10 @@
         <v>127296.3126829774</v>
       </c>
       <c r="R26">
-        <v>1.303382352941176</v>
+        <v>1.358217807733239</v>
       </c>
       <c r="S26">
-        <v>1.36921875</v>
+        <v>1.430585745597461</v>
       </c>
       <c r="T26">
         <v>15.91203908537217</v>
@@ -1940,7 +1940,7 @@
         <v>58</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -1955,10 +1955,10 @@
         <v>528597.6567886297</v>
       </c>
       <c r="R27">
-        <v>1.303382352941176</v>
+        <v>1.205212661479187</v>
       </c>
       <c r="S27">
-        <v>1.36921875</v>
+        <v>1.260158184868579</v>
       </c>
       <c r="T27">
         <v>66.07470709857871</v>
@@ -2099,7 +2099,7 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L30">
         <v>8000</v>
@@ -2114,10 +2114,10 @@
         <v>459068.6159146749</v>
       </c>
       <c r="R30">
-        <v>1.303382352941176</v>
+        <v>1.322159312571127</v>
       </c>
       <c r="S30">
-        <v>1.36921875</v>
+        <v>1.390195897186759</v>
       </c>
       <c r="T30">
         <v>57.38357698933437</v>
@@ -2152,7 +2152,7 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2167,10 +2167,10 @@
         <v>402321.776539363</v>
       </c>
       <c r="R31">
-        <v>1.303382352941176</v>
+        <v>1.381466033569542</v>
       </c>
       <c r="S31">
-        <v>1.36921875</v>
+        <v>1.45670088811587</v>
       </c>
       <c r="T31">
         <v>50.29022206742038</v>
